--- a/Data_Science_2020_v2.xlsx
+++ b/Data_Science_2020_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-Aug-2019\Building_Team_Oct19\Sample_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY PROCESS\Heroku Websites\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA20AF37-26A7-46A0-A512-B8918BBB00F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682003C4-8A34-4813-A1B6-7C5AAFD36D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7632,28 +7632,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1799</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1800</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1801</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1802</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1803</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1804</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1805</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1806</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1807</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1808</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1809</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1810</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1811</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1812</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1813</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1814</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>1815</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1816</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1817</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>1818</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1819</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>1820</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1821</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1822</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>1823</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>1824</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>1825</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1826</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1827</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1828</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1829</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>1830</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1831</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1832</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1833</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1834</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>1835</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1836</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1837</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>1838</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>1839</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1840</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>1841</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>1842</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1843</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>1844</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>1845</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>1846</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>1847</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1848</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1849</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>1850</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1851</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1852</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>1853</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>1854</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>1855</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>1856</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>1857</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1858</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>1859</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>1860</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>1861</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>1862</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>1863</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1864</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>1865</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>1866</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>1867</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>1868</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>1869</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>1870</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>1871</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>1872</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>1873</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>1874</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>1875</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>1876</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>1877</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>1878</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>1879</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1880</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>1881</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>1882</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>1883</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>1884</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>1885</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>1886</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>1887</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>1888</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>1889</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>1890</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>1891</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>1892</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>1893</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1894</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>1895</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>1896</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>1897</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>1898</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>1899</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>1900</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>1901</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>1902</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>1903</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>1904</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>1905</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>1906</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>1907</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>1908</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>1909</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>1910</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>1911</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>1912</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>1913</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>1914</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>1915</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>1916</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>1917</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>1918</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>1919</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>1920</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>1921</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>1922</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>1923</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>1924</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>1925</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>1926</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>1927</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>1928</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>1929</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>1930</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>1931</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>1932</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>1933</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>1934</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>1935</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>1936</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>1937</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>1938</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>1939</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>1940</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>1941</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>1942</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>1943</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>1944</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>1945</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>1946</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>1947</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>1948</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>1949</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>1950</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>1951</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>1952</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>1953</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>1954</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>1955</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>1956</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>1957</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>1958</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>1959</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>1960</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>1961</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>1962</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>1963</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>1964</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>1965</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>1966</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>1967</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>1968</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>1969</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>1970</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>1971</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>1972</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>1973</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>1974</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>1975</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>1976</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>1977</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>1978</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>1979</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>1980</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>1981</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>1982</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>1983</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>1984</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>1985</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>1986</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>1987</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>1988</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>1989</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>1990</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>1991</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>1992</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>1993</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>1994</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>1995</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>1996</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>1997</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>1998</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>1999</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>2000</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>2001</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>2002</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>2003</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>2004</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>2005</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>2006</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>2007</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>2008</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>2009</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>2010</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>2011</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>2012</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>2013</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>2014</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>2015</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>2016</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>2017</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>2018</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>2019</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>2020</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>2021</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>2022</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>2023</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>2024</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>2025</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>2026</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>2027</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>2028</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>2029</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>2030</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>2031</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>2032</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>2033</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>2034</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>2035</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>2036</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>2037</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>2038</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>2039</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>2040</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>2041</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>2042</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>2043</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>2044</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>2045</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>2046</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>2047</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>2048</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>2049</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>2050</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>2051</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>2052</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>2053</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>2054</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>2055</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>2056</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>2057</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>2058</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>2059</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>2060</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>2061</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>2062</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>2063</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>2064</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>2065</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>2066</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>2067</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>2068</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>2069</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>2070</v>
       </c>
@@ -19504,7 +19504,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>2071</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>2072</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>2073</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>2074</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>2075</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>2076</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>2077</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>2078</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>2079</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>2080</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>2081</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>2082</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>2083</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>2084</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>2085</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>2086</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>2087</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>2088</v>
       </c>
@@ -20293,7 +20293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>2089</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>2090</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>2091</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>2092</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>2093</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>2094</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>2095</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>2096</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>2097</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>2098</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>2099</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>2100</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>2101</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>2102</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>2103</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>2104</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>2105</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>2106</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>2107</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>2108</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>2109</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="312" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>2110</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="313" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>2111</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>2112</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>2113</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="316" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>2114</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>2115</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="318" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>2116</v>
       </c>
@@ -21519,7 +21519,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="319" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>2117</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="320" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>2118</v>
       </c>
@@ -21607,7 +21607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>2119</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>2120</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="323" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>2121</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="324" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>2122</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>2123</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="326" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>2124</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="327" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>2125</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="328" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>2126</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="329" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>2127</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>2128</v>
       </c>
@@ -22041,7 +22041,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="331" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>2129</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>2130</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="333" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>2131</v>
       </c>
@@ -22173,7 +22173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>2132</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="335" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>2133</v>
       </c>
@@ -22261,7 +22261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>2134</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>2135</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>2136</v>
       </c>
@@ -22393,7 +22393,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="339" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>2137</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>2138</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="341" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>2139</v>
       </c>
@@ -22519,7 +22519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>2140</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="343" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>2141</v>
       </c>
@@ -22607,7 +22607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>2142</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>2143</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="346" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>2144</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>2145</v>
       </c>
@@ -22780,7 +22780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>2146</v>
       </c>
@@ -22824,7 +22824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>2147</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="350" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>2148</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>2149</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="352" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>2150</v>
       </c>
@@ -23000,7 +23000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>2151</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>2152</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>2153</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>2154</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>2155</v>
       </c>
@@ -23217,7 +23217,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="358" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>2156</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>2157</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>2158</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="361" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>2159</v>
       </c>
@@ -23393,7 +23393,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="362" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>2160</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="363" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>2161</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>2162</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="365" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>2163</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="366" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>2164</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="367" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>2165</v>
       </c>
@@ -23657,7 +23657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>2166</v>
       </c>
@@ -23701,7 +23701,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="369" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>2167</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>2168</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>2169</v>
       </c>
@@ -23833,7 +23833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>2170</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="373" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>2171</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="374" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>2172</v>
       </c>
@@ -23962,7 +23962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>2173</v>
       </c>
@@ -24006,7 +24006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>2174</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>2175</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>2176</v>
       </c>
@@ -24138,7 +24138,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="379" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>2177</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="380" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>2178</v>
       </c>
@@ -24226,7 +24226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="381" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>2179</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>2180</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>2181</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>2182</v>
       </c>
@@ -24399,7 +24399,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="385" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>2183</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>2184</v>
       </c>
@@ -24484,7 +24484,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="387" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>2185</v>
       </c>
@@ -24528,7 +24528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="388" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>2186</v>
       </c>
@@ -24572,7 +24572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="389" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>2187</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="390" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>2188</v>
       </c>
@@ -24660,7 +24660,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="391" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>2189</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>2190</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="393" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>2191</v>
       </c>
@@ -24789,7 +24789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>2192</v>
       </c>
@@ -24833,7 +24833,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="395" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>2193</v>
       </c>
@@ -24877,7 +24877,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="396" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>2194</v>
       </c>
@@ -24921,7 +24921,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="397" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>2195</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="398" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>2196</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>2197</v>
       </c>
@@ -25047,7 +25047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="400" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>2198</v>
       </c>
@@ -25088,7 +25088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>2199</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="402" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>2200</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>2201</v>
       </c>
@@ -25220,7 +25220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>2202</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>2203</v>
       </c>
@@ -25305,7 +25305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="406" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>2204</v>
       </c>
@@ -25349,7 +25349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="407" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>2205</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="408" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>2206</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>2207</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>2208</v>
       </c>
@@ -25525,7 +25525,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="411" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>2209</v>
       </c>
@@ -25566,7 +25566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>2210</v>
       </c>
@@ -25610,7 +25610,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="413" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>2211</v>
       </c>
@@ -25654,7 +25654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>2212</v>
       </c>
@@ -25698,7 +25698,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="415" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>2213</v>
       </c>
@@ -25742,7 +25742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="416" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>2214</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>2215</v>
       </c>
@@ -25827,7 +25827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>2216</v>
       </c>
@@ -25871,7 +25871,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="419" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>2217</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>2218</v>
       </c>
@@ -25959,7 +25959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>2219</v>
       </c>
@@ -26003,7 +26003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>2220</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="423" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>2221</v>
       </c>
@@ -26091,7 +26091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="424" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>2222</v>
       </c>
@@ -26135,7 +26135,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="425" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>2223</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>2224</v>
       </c>
@@ -26223,7 +26223,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="427" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>2225</v>
       </c>
@@ -26267,7 +26267,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="428" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>2226</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="429" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>2227</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="430" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>2228</v>
       </c>
@@ -26399,7 +26399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>2229</v>
       </c>
@@ -26443,7 +26443,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="432" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>2230</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="433" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>2231</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="434" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>2232</v>
       </c>
@@ -26575,7 +26575,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="435" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>2233</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="436" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>2234</v>
       </c>
@@ -26663,7 +26663,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="437" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>2235</v>
       </c>
@@ -26707,7 +26707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="438" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>2236</v>
       </c>
@@ -26751,7 +26751,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="439" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>2237</v>
       </c>
@@ -26795,7 +26795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="440" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>2238</v>
       </c>
@@ -26839,7 +26839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="441" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>2239</v>
       </c>
@@ -26883,7 +26883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>2240</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>2241</v>
       </c>
@@ -26971,7 +26971,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="444" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>2242</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="445" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>2243</v>
       </c>
@@ -27056,7 +27056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
         <v>2244</v>
       </c>
@@ -27100,7 +27100,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="447" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>2245</v>
       </c>
@@ -27144,7 +27144,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="448" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>2246</v>
       </c>
@@ -27188,7 +27188,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="449" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>2247</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>2248</v>
       </c>
@@ -27276,7 +27276,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="451" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>2249</v>
       </c>
@@ -27317,7 +27317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="452" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>2250</v>
       </c>
@@ -27361,7 +27361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>2251</v>
       </c>
@@ -27405,7 +27405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="454" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>2252</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="455" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>2253</v>
       </c>
@@ -27493,7 +27493,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="456" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>2254</v>
       </c>
@@ -27537,7 +27537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="457" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>2255</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
         <v>2256</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="459" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>2257</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="460" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>2258</v>
       </c>
@@ -27710,7 +27710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="461" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
         <v>2259</v>
       </c>
@@ -27751,7 +27751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>2260</v>
       </c>
@@ -27795,7 +27795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>2261</v>
       </c>
@@ -27839,7 +27839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="464" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>2262</v>
       </c>
@@ -27883,7 +27883,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="465" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>2263</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="466" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>2264</v>
       </c>
@@ -27968,7 +27968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>2265</v>
       </c>
@@ -28012,7 +28012,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="468" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>2266</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="469" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>2267</v>
       </c>
@@ -28100,7 +28100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="470" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>2268</v>
       </c>
@@ -28144,7 +28144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>2269</v>
       </c>
@@ -28188,7 +28188,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="472" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>2270</v>
       </c>
@@ -28232,7 +28232,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>2271</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="474" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>2272</v>
       </c>
@@ -28320,7 +28320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>2273</v>
       </c>
@@ -28364,7 +28364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
         <v>2274</v>
       </c>
@@ -28408,7 +28408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>2275</v>
       </c>
@@ -28452,7 +28452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="478" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>2276</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
         <v>2277</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="480" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>2278</v>
       </c>
@@ -28584,7 +28584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="481" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>2279</v>
       </c>
@@ -28628,7 +28628,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="482" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>2280</v>
       </c>
@@ -28672,7 +28672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>2281</v>
       </c>
@@ -28716,7 +28716,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="484" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>2282</v>
       </c>
@@ -28760,7 +28760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="485" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>2283</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>2284</v>
       </c>
@@ -28848,7 +28848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="487" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>2285</v>
       </c>
@@ -28892,7 +28892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="488" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>2286</v>
       </c>
@@ -28936,7 +28936,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="489" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>2287</v>
       </c>
@@ -28980,7 +28980,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="490" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>2288</v>
       </c>
@@ -29024,7 +29024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="491" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>2289</v>
       </c>
@@ -29068,7 +29068,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="492" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>2290</v>
       </c>
@@ -29109,7 +29109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="493" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
         <v>2291</v>
       </c>
@@ -29153,7 +29153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>2292</v>
       </c>
@@ -29194,7 +29194,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="495" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>2293</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="496" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>2294</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="497" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
         <v>2295</v>
       </c>
@@ -29326,7 +29326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="498" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>2296</v>
       </c>
@@ -29370,7 +29370,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="499" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>2297</v>
       </c>
@@ -29414,7 +29414,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="500" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
         <v>2298</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="501" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
         <v>2299</v>
       </c>
@@ -29499,7 +29499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
         <v>2300</v>
       </c>
@@ -29543,7 +29543,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="503" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
         <v>2301</v>
       </c>
@@ -29587,7 +29587,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="504" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
         <v>2302</v>
       </c>
@@ -29631,7 +29631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="505" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
         <v>2303</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="506" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
         <v>2304</v>
       </c>
@@ -29719,7 +29719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="507" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>2305</v>
       </c>
@@ -29763,7 +29763,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="508" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
         <v>2306</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="509" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
         <v>2307</v>
       </c>
@@ -29851,7 +29851,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="510" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
         <v>2308</v>
       </c>
@@ -29892,7 +29892,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="511" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
         <v>2309</v>
       </c>
@@ -29936,7 +29936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="512" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
         <v>2310</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="513" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
         <v>2311</v>
       </c>
@@ -30024,7 +30024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="514" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
         <v>2312</v>
       </c>
@@ -30068,7 +30068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="515" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
         <v>2313</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="516" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
         <v>2314</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="517" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
         <v>2315</v>
       </c>
@@ -30200,7 +30200,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="518" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
         <v>2316</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="519" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
         <v>2317</v>
       </c>
@@ -30288,7 +30288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="520" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
         <v>2318</v>
       </c>
@@ -30332,7 +30332,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="521" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
         <v>2319</v>
       </c>
@@ -30373,7 +30373,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="522" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
         <v>2320</v>
       </c>
@@ -30417,7 +30417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="523" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
         <v>2321</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="524" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
         <v>2322</v>
       </c>
@@ -30505,7 +30505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="525" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
         <v>2323</v>
       </c>
@@ -30549,7 +30549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="526" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
         <v>2324</v>
       </c>
@@ -30593,7 +30593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="527" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
         <v>2325</v>
       </c>
@@ -30637,7 +30637,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="528" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
         <v>2326</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="529" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
         <v>2327</v>
       </c>
@@ -30725,7 +30725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="530" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
         <v>2328</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="531" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
         <v>2329</v>
       </c>
@@ -30810,7 +30810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="532" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
         <v>2330</v>
       </c>
@@ -30854,7 +30854,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="533" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
         <v>2331</v>
       </c>
@@ -30898,7 +30898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="534" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
         <v>2332</v>
       </c>
@@ -30942,7 +30942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="535" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
         <v>2333</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="536" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
         <v>2334</v>
       </c>
@@ -31030,7 +31030,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="537" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
         <v>2335</v>
       </c>
@@ -31074,7 +31074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="538" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
         <v>2336</v>
       </c>
@@ -31118,7 +31118,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="539" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
         <v>2337</v>
       </c>
@@ -31162,7 +31162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
         <v>2338</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="541" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
         <v>2339</v>
       </c>
@@ -31250,7 +31250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="542" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
         <v>2340</v>
       </c>
@@ -31294,7 +31294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="543" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
         <v>2341</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="544" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
         <v>2342</v>
       </c>
@@ -31379,7 +31379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="545" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
         <v>2343</v>
       </c>
@@ -31423,7 +31423,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="546" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
         <v>2344</v>
       </c>
@@ -31467,7 +31467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="547" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
         <v>2345</v>
       </c>
@@ -31511,7 +31511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="548" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
         <v>2346</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="549" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
         <v>2347</v>
       </c>
@@ -31599,7 +31599,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="550" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
         <v>2348</v>
       </c>
@@ -31643,7 +31643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="551" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
         <v>2349</v>
       </c>
@@ -31687,7 +31687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="552" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
         <v>2350</v>
       </c>
@@ -31731,7 +31731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="553" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
         <v>2351</v>
       </c>
@@ -31775,7 +31775,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="554" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
         <v>2352</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="555" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
         <v>2353</v>
       </c>
@@ -31863,7 +31863,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="556" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
         <v>2354</v>
       </c>
@@ -31907,7 +31907,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="557" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
         <v>2355</v>
       </c>
@@ -31951,7 +31951,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="558" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A558" s="4" t="s">
         <v>2356</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="559" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A559" s="4" t="s">
         <v>2357</v>
       </c>
@@ -32039,7 +32039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="560" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A560" s="4" t="s">
         <v>2358</v>
       </c>
@@ -32083,7 +32083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="561" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
         <v>2359</v>
       </c>
@@ -32127,7 +32127,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="562" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
         <v>2360</v>
       </c>
@@ -32168,7 +32168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="563" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A563" s="4" t="s">
         <v>2361</v>
       </c>
@@ -32212,7 +32212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="564" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
         <v>2362</v>
       </c>
@@ -32256,7 +32256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="565" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A565" s="4" t="s">
         <v>2363</v>
       </c>
@@ -32300,7 +32300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="566" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A566" s="4" t="s">
         <v>2364</v>
       </c>
@@ -32344,7 +32344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="567" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A567" s="4" t="s">
         <v>2365</v>
       </c>
@@ -32388,7 +32388,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="568" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A568" s="4" t="s">
         <v>2366</v>
       </c>
@@ -32432,7 +32432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="569" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A569" s="4" t="s">
         <v>2367</v>
       </c>
@@ -32476,7 +32476,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="570" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="4" t="s">
         <v>2368</v>
       </c>
@@ -32520,7 +32520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="571" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="4" t="s">
         <v>2369</v>
       </c>
@@ -32564,7 +32564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="572" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4" t="s">
         <v>2370</v>
       </c>
@@ -32608,7 +32608,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="573" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="4" t="s">
         <v>2371</v>
       </c>
@@ -32652,7 +32652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="574" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="4" t="s">
         <v>2372</v>
       </c>
@@ -32696,7 +32696,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="575" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A575" s="4" t="s">
         <v>2373</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="576" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A576" s="4" t="s">
         <v>2374</v>
       </c>
@@ -32784,7 +32784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="577" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A577" s="4" t="s">
         <v>2375</v>
       </c>
@@ -32828,7 +32828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="578" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
         <v>2376</v>
       </c>
@@ -32872,7 +32872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="579" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A579" s="4" t="s">
         <v>2377</v>
       </c>
@@ -32916,7 +32916,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="580" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A580" s="4" t="s">
         <v>2378</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="581" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A581" s="4" t="s">
         <v>2379</v>
       </c>
@@ -33004,7 +33004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="582" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
         <v>2380</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="583" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A583" s="4" t="s">
         <v>2381</v>
       </c>
@@ -33092,7 +33092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="584" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
         <v>2382</v>
       </c>
@@ -33136,7 +33136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="585" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A585" s="4" t="s">
         <v>2383</v>
       </c>
@@ -33177,7 +33177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="586" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A586" s="4" t="s">
         <v>2384</v>
       </c>
@@ -33218,7 +33218,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="587" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A587" s="4" t="s">
         <v>2385</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="588" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
         <v>2386</v>
       </c>
@@ -33306,7 +33306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A589" s="4" t="s">
         <v>2387</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="590" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
         <v>2388</v>
       </c>
@@ -33394,7 +33394,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="591" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
         <v>2389</v>
       </c>
@@ -33438,7 +33438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A592" s="4" t="s">
         <v>2390</v>
       </c>
@@ -33482,7 +33482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="593" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A593" s="4" t="s">
         <v>2391</v>
       </c>
@@ -33526,7 +33526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="594" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A594" s="4" t="s">
         <v>2392</v>
       </c>
@@ -33570,7 +33570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="595" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
         <v>2393</v>
       </c>
@@ -33614,7 +33614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="596" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A596" s="4" t="s">
         <v>2394</v>
       </c>
@@ -33658,7 +33658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="597" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>2395</v>
       </c>
@@ -33699,7 +33699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="598" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="4" t="s">
         <v>2396</v>
       </c>
@@ -33743,7 +33743,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="599" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A599" s="4" t="s">
         <v>2397</v>
       </c>
@@ -33787,7 +33787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
         <v>2398</v>
       </c>
@@ -33831,7 +33831,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="601" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A601" s="4" t="s">
         <v>2399</v>
       </c>
@@ -33875,7 +33875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="602" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A602" s="4" t="s">
         <v>2400</v>
       </c>
@@ -33919,7 +33919,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="603" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4" t="s">
         <v>2401</v>
       </c>
@@ -33960,7 +33960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A604" s="4" t="s">
         <v>2402</v>
       </c>
@@ -34001,7 +34001,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A605" s="4" t="s">
         <v>2403</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="606" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A606" s="4" t="s">
         <v>2404</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A607" s="4" t="s">
         <v>2405</v>
       </c>
@@ -34130,7 +34130,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="608" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A608" s="4" t="s">
         <v>2406</v>
       </c>
@@ -34174,7 +34174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
         <v>2407</v>
       </c>
@@ -34218,7 +34218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="610" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="4" t="s">
         <v>2408</v>
       </c>
@@ -34262,7 +34262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="611" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
         <v>2409</v>
       </c>
@@ -34306,7 +34306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="612" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A612" s="4" t="s">
         <v>2410</v>
       </c>
